--- a/Data/codebook_yield_maize_rwanda.xlsx
+++ b/Data/codebook_yield_maize_rwanda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorad002\R_Projects\1000FarmsCoreFunctions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorad002\R_Projects\tricot-ranking-analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD36DA4-C649-45A5-8B03-38DEE53847FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9101B2-8747-46CF-B2CA-D9664AFA7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="4245" windowWidth="23550" windowHeight="11355" xr2:uid="{5F4EB7EA-357E-4B50-8AF3-D778589A8771}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{5F4EB7EA-357E-4B50-8AF3-D778589A8771}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Variable name</t>
   </si>
@@ -117,27 +117,6 @@
   </si>
   <si>
     <t>Coding scheme should follow the country’s AEZ classification.</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Longitude coordinate of the trial site or farm.</t>
-  </si>
-  <si>
-    <t>Use decimal degrees (WGS84). Negative = West.</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>Latitude coordinate of the trial site or farm.</t>
-  </si>
-  <si>
-    <t>Use decimal degrees (WGS84). Negative = South.</t>
   </si>
   <si>
     <t>zone</t>
@@ -549,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A9F9DF-6175-4164-A354-561171A18506}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
@@ -679,41 +658,13 @@
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
